--- a/JSAT2 - part b1 test plan.xlsx
+++ b/JSAT2 - part b1 test plan.xlsx
@@ -5,23 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidan\Dropbox\Holmesglen\JS assessment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidan\Dropbox\Holmesglen\JS assessment 2\js_assessment_2_portfolio_aidan_maizels\JSAT2\part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F688047B-61F4-48A7-848A-2BD08EC00AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2FE287-73B3-4AEB-996F-73C02A009ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="16005" windowHeight="12885" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test1 (Firefox)" sheetId="10" r:id="rId1"/>
-    <sheet name="Test1 (Chrome)" sheetId="11" r:id="rId2"/>
+    <sheet name="sequentialSearch Test 1" sheetId="13" r:id="rId1"/>
+    <sheet name="sequentialSearch Test 2" sheetId="10" r:id="rId2"/>
+    <sheet name="binarySearch Test 1" sheetId="12" r:id="rId3"/>
+    <sheet name="binarySearch Test 2" sheetId="14" r:id="rId4"/>
+    <sheet name="Test1 (Chrome)" sheetId="11" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -62,12 +65,6 @@
     <t>Aidan Maizels</t>
   </si>
   <si>
-    <t>Open HTML file in Firefox</t>
-  </si>
-  <si>
-    <t>Blank page with correct title opens in FF</t>
-  </si>
-  <si>
     <t>Blank page with correct title opened in FF</t>
   </si>
   <si>
@@ -87,6 +84,84 @@
   </si>
   <si>
     <t>Blank page with correct title opened in Chrome</t>
+  </si>
+  <si>
+    <t>Open HTML file in browser</t>
+  </si>
+  <si>
+    <t>Blank page with correct title opens</t>
+  </si>
+  <si>
+    <t>Console log opens</t>
+  </si>
+  <si>
+    <t>Console log opened</t>
+  </si>
+  <si>
+    <t>Console log displays as described &lt;&lt;</t>
+  </si>
+  <si>
+    <t>View the (sorted) array and key/value to be found once function called</t>
+  </si>
+  <si>
+    <t>Check that 'sequentialSearch' function is working</t>
+  </si>
+  <si>
+    <t>Console log to display 'Array to be searched is 3, 5, 11,14, 16, 19, 20, 23, 25, 30, 45; and the value to be found is 25' - verifying that the function has been called, as well as the relevant values are correct.</t>
+  </si>
+  <si>
+    <t>See whether a known correct value was found in the array</t>
+  </si>
+  <si>
+    <t>Confirm the index of found value is correct</t>
+  </si>
+  <si>
+    <t>As the key has been set to a value known to be in the array (25), we should see 'The value of 25 was found' in the console log.</t>
+  </si>
+  <si>
+    <t>Check console log for the index output number, then count along the array (starting at 0) to confirm that 25 appears at the right index in the sorted array</t>
+  </si>
+  <si>
+    <t>Console log displays value found at index 8, which is confirmed by counting the indicies of the sorted array</t>
+  </si>
+  <si>
+    <t>Console log displays 'The value of 24 was not found'</t>
+  </si>
+  <si>
+    <t>Console log to display 'Array to be searched is 3, 5, 11,14, 16, 19, 20, 23, 25, 30, 45; and the value to be found is 5' - verifying that the function has been called, as well as the relevant values are correct.</t>
+  </si>
+  <si>
+    <t>Check that 'binarySearch' function is working</t>
+  </si>
+  <si>
+    <t>Check console log for the index output number, then count along the array (starting at 0) to confirm that 5 appears at the right index in the sorted array</t>
+  </si>
+  <si>
+    <t>Console log displays value found at index 1, which is confirmed by counting the indicies of the sorted array</t>
+  </si>
+  <si>
+    <t>Console log displays 'The value of 4 was not found'</t>
+  </si>
+  <si>
+    <t>As the key has been set to a value known to be in the array (5), we should see 'The value of 5 was found' in the console log.</t>
+  </si>
+  <si>
+    <t>Console log to display 'Array to be searched is 3, 5, 11,14, 16, 19, 20, 23, 25, 30, 45; and the value to be found is 24' - verifying that the function has been called, as well as the relevant values are correct.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>See 'The value of 24 was found' in the console log.</t>
+  </si>
+  <si>
+    <t>See 'the value was found at index {number}' in the console log.</t>
+  </si>
+  <si>
+    <t>Console log to display 'Array to be searched is 3, 5, 11,14, 16, 19, 20, 23, 25, 30, 45; and the value to be found is 4' - verifying that the function has been called, as well as the relevant values are correct.</t>
+  </si>
+  <si>
+    <t>See 'The value of 4 was found' in the console log.</t>
   </si>
 </sst>
 </file>
@@ -243,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,7 +337,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -271,6 +348,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -288,32 +389,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,39 +676,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883A4F42-1B46-4B1E-B91B-251F58B3FD09}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF3874C-D3EB-487E-BFE4-5A7FBF8B634F}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
     <col min="6" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="6">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -649,80 +732,80 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="31.5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16">
         <v>45940</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="26"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="19"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="54" customHeight="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
@@ -737,15 +820,15 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="26"/>
       <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="26"/>
       <c r="F8" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
@@ -755,241 +838,111 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="17" spans="1:1" ht="23.1" customHeight="1"/>
-    <row r="18" spans="1:1" ht="68.099999999999994" hidden="1" customHeight="1"/>
-    <row r="19" spans="1:1" ht="50.1" customHeight="1"/>
-    <row r="20" spans="1:1" ht="44.1" customHeight="1"/>
-    <row r="21" spans="1:1" ht="48.95" customHeight="1"/>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="30" spans="1:1" ht="44.1" customHeight="1"/>
-    <row r="31" spans="1:1" ht="36.950000000000003" customHeight="1"/>
-    <row r="32" spans="1:1" ht="38.1" customHeight="1"/>
-    <row r="33" ht="47.1" customHeight="1"/>
-    <row r="34" ht="36.950000000000003" customHeight="1"/>
-    <row r="35" ht="33.950000000000003" customHeight="1"/>
-    <row r="36" ht="33.950000000000003" customHeight="1"/>
-    <row r="44" ht="50.1" customHeight="1"/>
-    <row r="45" ht="36" customHeight="1"/>
-    <row r="46" ht="36" customHeight="1"/>
+    <row r="9" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="89.25" customHeight="1">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="86.25" customHeight="1">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.1" customHeight="1"/>
+    <row r="16" spans="1:11" ht="68.099999999999994" hidden="1" customHeight="1"/>
+    <row r="17" spans="1:1" ht="50.1" customHeight="1"/>
+    <row r="18" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="19" spans="1:1" ht="48.95" customHeight="1"/>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="28" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="29" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="30" spans="1:1" ht="38.1" customHeight="1"/>
+    <row r="31" spans="1:1" ht="47.1" customHeight="1"/>
+    <row r="32" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="33" ht="33.950000000000003" customHeight="1"/>
+    <row r="34" ht="33.950000000000003" customHeight="1"/>
+    <row r="42" ht="50.1" customHeight="1"/>
+    <row r="43" ht="36" customHeight="1"/>
+    <row r="44" ht="36" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
+  <mergeCells count="33">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:K8"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012867A-EE3B-4111-91CE-8FDB3581CEA5}">
-  <dimension ref="A1:K46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="6">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="31.5">
-      <c r="A3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23">
-        <v>45940</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="54" customHeight="1">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="48.4" customHeight="1">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="17" spans="1:1" ht="23.1" customHeight="1"/>
-    <row r="18" spans="1:1" ht="68.099999999999994" hidden="1" customHeight="1"/>
-    <row r="19" spans="1:1" ht="50.1" customHeight="1"/>
-    <row r="20" spans="1:1" ht="44.1" customHeight="1"/>
-    <row r="21" spans="1:1" ht="48.95" customHeight="1"/>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="30" spans="1:1" ht="44.1" customHeight="1"/>
-    <row r="31" spans="1:1" ht="36.950000000000003" customHeight="1"/>
-    <row r="32" spans="1:1" ht="38.1" customHeight="1"/>
-    <row r="33" ht="47.1" customHeight="1"/>
-    <row r="34" ht="36.950000000000003" customHeight="1"/>
-    <row r="35" ht="33.950000000000003" customHeight="1"/>
-    <row r="36" ht="33.950000000000003" customHeight="1"/>
-    <row r="44" ht="50.1" customHeight="1"/>
-    <row r="45" ht="36" customHeight="1"/>
-    <row r="46" ht="36" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
@@ -1014,4 +967,1097 @@
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883A4F42-1B46-4B1E-B91B-251F58B3FD09}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="2" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="31.5">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16">
+        <v>45940</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="54" customHeight="1">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="48.4" customHeight="1">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="89.25" customHeight="1">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="86.25" customHeight="1">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.1" customHeight="1"/>
+    <row r="16" spans="1:11" ht="68.099999999999994" hidden="1" customHeight="1"/>
+    <row r="17" spans="1:1" ht="50.1" customHeight="1"/>
+    <row r="18" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="19" spans="1:1" ht="48.95" customHeight="1"/>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="28" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="29" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="30" spans="1:1" ht="38.1" customHeight="1"/>
+    <row r="31" spans="1:1" ht="47.1" customHeight="1"/>
+    <row r="32" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="33" ht="33.950000000000003" customHeight="1"/>
+    <row r="34" ht="33.950000000000003" customHeight="1"/>
+    <row r="42" ht="50.1" customHeight="1"/>
+    <row r="43" ht="36" customHeight="1"/>
+    <row r="44" ht="36" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A8BE3F-66F0-41D8-A041-E302B8B2AC7E}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="2" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="31.5">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16">
+        <v>45940</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="54" customHeight="1">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="48.4" customHeight="1">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="89.25" customHeight="1">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="86.25" customHeight="1">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.1" customHeight="1"/>
+    <row r="16" spans="1:11" ht="68.099999999999994" hidden="1" customHeight="1"/>
+    <row r="17" spans="1:1" ht="50.1" customHeight="1"/>
+    <row r="18" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="19" spans="1:1" ht="48.95" customHeight="1"/>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="28" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="29" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="30" spans="1:1" ht="38.1" customHeight="1"/>
+    <row r="31" spans="1:1" ht="47.1" customHeight="1"/>
+    <row r="32" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="33" ht="33.950000000000003" customHeight="1"/>
+    <row r="34" ht="33.950000000000003" customHeight="1"/>
+    <row r="42" ht="50.1" customHeight="1"/>
+    <row r="43" ht="36" customHeight="1"/>
+    <row r="44" ht="36" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00449AE4-EBA5-4213-9295-C1535DB6FBCC}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="2" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="31.5">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16">
+        <v>45940</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="54" customHeight="1">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="48.4" customHeight="1">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="89.25" customHeight="1">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="86.25" customHeight="1">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.1" customHeight="1"/>
+    <row r="16" spans="1:11" ht="68.099999999999994" hidden="1" customHeight="1"/>
+    <row r="17" spans="1:1" ht="50.1" customHeight="1"/>
+    <row r="18" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="19" spans="1:1" ht="48.95" customHeight="1"/>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="28" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="29" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="30" spans="1:1" ht="38.1" customHeight="1"/>
+    <row r="31" spans="1:1" ht="47.1" customHeight="1"/>
+    <row r="32" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="33" ht="33.950000000000003" customHeight="1"/>
+    <row r="34" ht="33.950000000000003" customHeight="1"/>
+    <row r="42" ht="50.1" customHeight="1"/>
+    <row r="43" ht="36" customHeight="1"/>
+    <row r="44" ht="36" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012867A-EE3B-4111-91CE-8FDB3581CEA5}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="31.5">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16">
+        <v>45940</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="54" customHeight="1">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="48.4" customHeight="1">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="17" spans="1:1" ht="23.1" customHeight="1"/>
+    <row r="18" spans="1:1" ht="68.099999999999994" hidden="1" customHeight="1"/>
+    <row r="19" spans="1:1" ht="50.1" customHeight="1"/>
+    <row r="20" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="21" spans="1:1" ht="48.95" customHeight="1"/>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="30" spans="1:1" ht="44.1" customHeight="1"/>
+    <row r="31" spans="1:1" ht="36.950000000000003" customHeight="1"/>
+    <row r="32" spans="1:1" ht="38.1" customHeight="1"/>
+    <row r="33" ht="47.1" customHeight="1"/>
+    <row r="34" ht="36.950000000000003" customHeight="1"/>
+    <row r="35" ht="33.950000000000003" customHeight="1"/>
+    <row r="36" ht="33.950000000000003" customHeight="1"/>
+    <row r="44" ht="50.1" customHeight="1"/>
+    <row r="45" ht="36" customHeight="1"/>
+    <row r="46" ht="36" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>